--- a/Projects/CCBZA_SAND/Tests/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Tests/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Set" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="124">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">Coolers Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YESSSSSSSS</t>
   </si>
   <si>
     <t xml:space="preserve">Atomic KPI Name</t>
@@ -679,8 +682,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.4093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7627906976744"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -787,21 +790,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.6279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.7953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.2279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7813953488372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.4558139534884"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,6 +1034,11 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1056,9 +1064,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.1488372093023"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>100</v>
@@ -1108,19 +1116,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.0837209302326"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.293023255814"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.446511627907"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="55.0093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.2976744186047"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7209302325581"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="56.6093023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1128,66 +1136,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,37 +1203,37 @@
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="12" t="n">
         <v>200</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,13 +1241,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -1249,13 +1257,13 @@
         <v>5</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,19 +1271,19 @@
         <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,19 +1291,19 @@
         <v>22</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,19 +1311,19 @@
         <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1323,19 +1331,19 @@
         <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,19 +1351,19 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>9</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,19 +1371,19 @@
         <v>26</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,19 +1391,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>10.5</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,19 +1411,19 @@
         <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>12.99</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,19 +1431,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>10</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>14</v>
@@ -1452,13 +1460,13 @@
         <v>3</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1474,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>17</v>
@@ -1475,13 +1483,13 @@
         <v>3</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1509,14 +1517,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="62.1441860465116"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4604651162791"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="63.9906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,25 +1532,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,19 +1558,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1570,16 +1578,16 @@
         <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,16 +1595,16 @@
         <v>25</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="F4" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,16 +1612,16 @@
         <v>26</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1621,16 +1629,16 @@
         <v>27</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="F6" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,16 +1646,16 @@
         <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,19 +1663,19 @@
         <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,19 +1683,19 @@
         <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1695,19 +1703,19 @@
         <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,19 +1723,19 @@
         <v>32</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,23 +1883,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="83.9302325581395"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.4279069767442"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.64651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.3906976744186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76744186046512"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.27441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="12.8"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="66.4558139534884"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.76744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="68.5441860465116"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,52 +1907,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1952,19 +1960,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -1973,13 +1981,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1987,10 +1995,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>12</v>
@@ -2002,13 +2010,13 @@
         <v>5</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,25 +2024,25 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2042,19 +2050,19 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,19 +2070,19 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,19 +2090,19 @@
         <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2102,19 +2110,19 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,22 +2130,22 @@
         <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2165,19 +2173,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5953488372093"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.8604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.7674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.106976744186"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.2"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.106976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5953488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3813953488372"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.8418604651163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8139534883721"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,40 +2193,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2226,25 +2234,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>30</v>
@@ -2253,10 +2261,10 @@
         <v>5</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2284,12 +2292,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.4279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.9209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,22 +2305,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4</v>
@@ -2329,13 +2337,13 @@
         <v>6</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2343,7 +2351,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -2352,13 +2360,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2366,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2375,13 +2383,13 @@
         <v>6</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/CCBZA_SAND/Tests/Data/Template_L&T.xlsx
+++ b/Projects/CCBZA_SAND/Tests/Data/Template_L&T.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Set" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="126">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -324,10 +324,16 @@
     <t xml:space="preserve">Availability POS</t>
   </si>
   <si>
-    <t xml:space="preserve">POS atrr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand_name</t>
+    <t xml:space="preserve">product_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attr5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zero</t>
   </si>
   <si>
     <t xml:space="preserve">Spaza Affordable </t>
@@ -390,7 +396,7 @@
     <t xml:space="preserve">Score </t>
   </si>
   <si>
-    <t xml:space="preserve">CCBSA Quad Cola ≥ 50% of CCBSA SSD's - cold of which Diets/Zeros/Lights≥30%</t>
+    <t xml:space="preserve">CCBSA Quad Cola =&gt; 50% of CCBSA SSDs - cold of which Diets/Zeros/Lights=&gt;30%</t>
   </si>
   <si>
     <t xml:space="preserve">Quad Cola</t>
@@ -682,8 +688,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.7627906976744"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.1162790697674"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,19 +798,19 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.0558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.4558139534884"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.9627906976744"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8883720930233"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.0418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.6883720930233"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1064,9 +1070,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.7488372093023"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9953488372093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.3488372093023"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,24 +1117,24 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4418604651163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.2976744186047"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.093023255814"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.15348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="56.6093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0604651162791"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="78.5116279069767"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.906976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3395348837209"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.27441860465116"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.2139534883721"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.1813953488372"/>
+    <col collapsed="false" hidden="false" max="10" min="8" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="58.3302325581395"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,19 +1518,19 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="63.9906976744186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6139534883721"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.706976744186"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="65.9627906976744"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.106976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,29 +1883,30 @@
   </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="86.3906976744186"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4883720930233"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.6744186046512"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.76744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.4"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="68.5441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2744186046512"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.9953488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6604651162791"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9023255813954"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.11627906976744"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.73953488372093"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5209302325581"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.89302325581395"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="70.5162790697674"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,7 +1962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -1971,8 +1978,14 @@
       <c r="F2" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
@@ -1984,10 +1997,10 @@
         <v>57</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,10 +2008,10 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>12</v>
@@ -2016,7 +2029,7 @@
         <v>58</v>
       </c>
       <c r="Q3" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2024,13 +2037,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>97</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>68</v>
@@ -2050,10 +2063,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>2</v>
@@ -2070,10 +2083,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>2</v>
@@ -2090,10 +2103,10 @@
         <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>2</v>
@@ -2110,10 +2123,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>2</v>
@@ -2130,10 +2143,10 @@
         <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>2</v>
@@ -2145,7 +2158,7 @@
         <v>58</v>
       </c>
       <c r="Q9" s="11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2167,25 +2180,25 @@
   </sheetPr>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.5953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.3813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.8418604651163"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.8139534883721"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.89302325581395"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.6697674418605"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2744186046512"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.3348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.9953488372093"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.5813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.4279069767442"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="18.0883720930233"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2199,25 +2212,25 @@
         <v>88</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K1" s="9" t="s">
         <v>49</v>
@@ -2234,25 +2247,25 @@
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>30</v>
@@ -2264,7 +2277,7 @@
         <v>57</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2287,17 +2300,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="20.9209302325581"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="21.4139534883721"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.446511627907"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.093023255814"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2311,7 +2324,7 @@
         <v>41</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>49</v>
@@ -2328,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>4</v>
@@ -2340,10 +2353,10 @@
         <v>57</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2364,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>3</v>
@@ -2363,10 +2376,10 @@
         <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2374,7 +2387,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -2386,10 +2399,10 @@
         <v>57</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
